--- a/biology/Histoire de la zoologie et de la botanique/Willy_Burgdorfer/Willy_Burgdorfer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Willy_Burgdorfer/Willy_Burgdorfer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Willy Burgdorfer (Bâle, Suisse, 27 juin 1925, 17 novembre 2014) est un entomologiste et bactériologiste américain, ayant découvert le germe responsable de la maladie de Lyme et qui a été nommé Borrelia burgdorferi en son honneur.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études à l'université de Bâle avant de rejoindre les Montagnes Rocheuses aux États-Unis et son laboratoire de parasitologie et de maladies infectieuses, où il se spécialise dans les maladies à tiques[1].
-Il découvre et publie la découverte du germe responsable de la maladie de Lyme en 1982 dans la revue Science[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études à l'université de Bâle avant de rejoindre les Montagnes Rocheuses aux États-Unis et son laboratoire de parasitologie et de maladies infectieuses, où il se spécialise dans les maladies à tiques.
+Il découvre et publie la découverte du germe responsable de la maladie de Lyme en 1982 dans la revue Science.
 </t>
         </is>
       </c>
